--- a/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_26.07.24_output.xlsx
+++ b/docs/PTA4_WDDC_100_10_20/PTA4_WDDC_100_10_20_26.07.24_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J72"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,7 +487,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>pupse</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C2" t="b">
@@ -498,18 +498,26 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>VT</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+          <t>VisualTraider_v3</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
+        <v>58.64</v>
+      </c>
+      <c r="H2" t="n">
+        <v>58.39</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0.43</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -517,7 +525,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C3" t="b">
@@ -528,7 +536,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,16 +545,16 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>300</v>
+        <v>55.85</v>
       </c>
       <c r="H3" t="n">
-        <v>298.75</v>
+        <v>56.08</v>
       </c>
       <c r="I3" t="n">
-        <v>1.25</v>
+        <v>0.2299999999999969</v>
       </c>
       <c r="J3" t="n">
-        <v>0.42</v>
+        <v>0.41</v>
       </c>
     </row>
     <row r="4">
@@ -555,7 +563,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C4" t="b">
@@ -566,7 +574,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -575,16 +583,16 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>296.25</v>
+        <v>56.49</v>
       </c>
       <c r="H4" t="n">
-        <v>297.84</v>
+        <v>56.33</v>
       </c>
       <c r="I4" t="n">
-        <v>1.589999999999975</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="J4" t="n">
-        <v>0.54</v>
+        <v>0.28</v>
       </c>
     </row>
     <row r="5">
@@ -593,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C5" t="b">
@@ -604,7 +612,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -613,16 +621,16 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>295.06</v>
+        <v>63.82</v>
       </c>
       <c r="H5" t="n">
-        <v>295</v>
+        <v>63.55</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.06000000000000227</v>
+        <v>0.2700000000000031</v>
       </c>
       <c r="J5" t="n">
-        <v>-0.02</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="6">
@@ -631,7 +639,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C6" t="b">
@@ -651,16 +659,16 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>293.8</v>
+        <v>63.16</v>
       </c>
       <c r="H6" t="n">
-        <v>294.6</v>
+        <v>63.23</v>
       </c>
       <c r="I6" t="n">
-        <v>0.8000000000000114</v>
+        <v>0.07000000000000028</v>
       </c>
       <c r="J6" t="n">
-        <v>0.27</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="7">
@@ -669,7 +677,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C7" t="b">
@@ -680,7 +688,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -689,16 +697,16 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>136.46</v>
+        <v>62.52</v>
       </c>
       <c r="H7" t="n">
-        <v>136.18</v>
+        <v>61.3</v>
       </c>
       <c r="I7" t="n">
-        <v>0.2800000000000011</v>
+        <v>-1.220000000000006</v>
       </c>
       <c r="J7" t="n">
-        <v>0.21</v>
+        <v>-1.95</v>
       </c>
     </row>
     <row r="8">
@@ -707,7 +715,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="C8" t="b">
@@ -718,7 +726,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -727,16 +735,16 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>133.1</v>
+        <v>61.69</v>
       </c>
       <c r="H8" t="n">
-        <v>133.56</v>
+        <v>61.38</v>
       </c>
       <c r="I8" t="n">
-        <v>0.460000000000008</v>
+        <v>0.3099999999999952</v>
       </c>
       <c r="J8" t="n">
-        <v>0.35</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="9">
@@ -745,7 +753,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C9" t="b">
@@ -756,7 +764,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -765,16 +773,16 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>134.28</v>
+        <v>381.84</v>
       </c>
       <c r="H9" t="n">
-        <v>135.01</v>
+        <v>385</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.7299999999999898</v>
+        <v>3.160000000000025</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.54</v>
+        <v>0.83</v>
       </c>
     </row>
     <row r="10">
@@ -783,7 +791,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C10" t="b">
@@ -803,16 +811,16 @@
         </is>
       </c>
       <c r="G10" t="n">
-        <v>6945</v>
+        <v>385.4</v>
       </c>
       <c r="H10" t="n">
-        <v>6947</v>
+        <v>382.66</v>
       </c>
       <c r="I10" t="n">
-        <v>-2</v>
+        <v>2.739999999999952</v>
       </c>
       <c r="J10" t="n">
-        <v>-0.03</v>
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="11">
@@ -821,7 +829,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C11" t="b">
@@ -841,16 +849,16 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>6892.5</v>
+        <v>381.93</v>
       </c>
       <c r="H11" t="n">
-        <v>6928</v>
+        <v>382.83</v>
       </c>
       <c r="I11" t="n">
-        <v>35.5</v>
+        <v>0.8999999999999773</v>
       </c>
       <c r="J11" t="n">
-        <v>0.52</v>
+        <v>0.24</v>
       </c>
     </row>
     <row r="12">
@@ -859,7 +867,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="C12" t="b">
@@ -879,16 +887,16 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>6948</v>
+        <v>383.67</v>
       </c>
       <c r="H12" t="n">
-        <v>6933.5</v>
+        <v>384.62</v>
       </c>
       <c r="I12" t="n">
-        <v>14.5</v>
+        <v>-0.9499999999999886</v>
       </c>
       <c r="J12" t="n">
-        <v>0.21</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="13">
@@ -897,7 +905,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C13" t="b">
@@ -908,7 +916,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -917,16 +925,16 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>6931.5</v>
+        <v>1464.8</v>
       </c>
       <c r="H13" t="n">
-        <v>6941</v>
+        <v>1458.2</v>
       </c>
       <c r="I13" t="n">
-        <v>9.5</v>
+        <v>6.599999999999909</v>
       </c>
       <c r="J13" t="n">
-        <v>0.14</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="14">
@@ -935,7 +943,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C14" t="b">
@@ -946,7 +954,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -955,16 +963,16 @@
         </is>
       </c>
       <c r="G14" t="n">
-        <v>538</v>
+        <v>1430.4</v>
       </c>
       <c r="H14" t="n">
-        <v>537.05</v>
+        <v>1432.4</v>
       </c>
       <c r="I14" t="n">
-        <v>0.9500000000000455</v>
+        <v>2</v>
       </c>
       <c r="J14" t="n">
-        <v>0.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="15">
@@ -973,7 +981,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C15" t="b">
@@ -984,7 +992,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -993,16 +1001,16 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>530.95</v>
+        <v>1437.2</v>
       </c>
       <c r="H15" t="n">
-        <v>534.8</v>
+        <v>1430.8</v>
       </c>
       <c r="I15" t="n">
-        <v>3.849999999999909</v>
+        <v>6.400000000000091</v>
       </c>
       <c r="J15" t="n">
-        <v>0.73</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="16">
@@ -1011,7 +1019,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C16" t="b">
@@ -1031,16 +1039,16 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>527.95</v>
+        <v>0.10068</v>
       </c>
       <c r="H16" t="n">
-        <v>522.15</v>
+        <v>0.10104</v>
       </c>
       <c r="I16" t="n">
-        <v>-5.800000000000068</v>
+        <v>0.0003599999999999992</v>
       </c>
       <c r="J16" t="n">
-        <v>-1.1</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="17">
@@ -1049,16 +1057,18 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
-      <c r="D17" t="inlineStr"/>
+      <c r="D17" t="b">
+        <v>1</v>
+      </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1067,16 +1077,16 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>524.95</v>
+        <v>0.09954</v>
       </c>
       <c r="H17" t="n">
-        <v>524.9</v>
+        <v>0.09846000000000001</v>
       </c>
       <c r="I17" t="n">
-        <v>0.05000000000006821</v>
+        <v>-0.001079999999999998</v>
       </c>
       <c r="J17" t="n">
-        <v>0.01</v>
+        <v>-1.08</v>
       </c>
     </row>
     <row r="18">
@@ -1085,7 +1095,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="C18" t="b">
@@ -1105,16 +1115,16 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1096.8</v>
+        <v>0.09918</v>
       </c>
       <c r="H18" t="n">
-        <v>1093.8</v>
+        <v>0.09864000000000001</v>
       </c>
       <c r="I18" t="n">
-        <v>3</v>
+        <v>0.0005399999999999988</v>
       </c>
       <c r="J18" t="n">
-        <v>0.27</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="19">
@@ -1123,7 +1133,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C19" t="b">
@@ -1134,7 +1144,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1143,16 +1153,16 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>1082.4</v>
+        <v>136.46</v>
       </c>
       <c r="H19" t="n">
-        <v>1087</v>
+        <v>136.18</v>
       </c>
       <c r="I19" t="n">
-        <v>4.599999999999909</v>
+        <v>0.2800000000000011</v>
       </c>
       <c r="J19" t="n">
-        <v>0.42</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="20">
@@ -1161,7 +1171,7 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C20" t="b">
@@ -1181,16 +1191,16 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1072.4</v>
+        <v>133.1</v>
       </c>
       <c r="H20" t="n">
-        <v>1066.6</v>
+        <v>133.56</v>
       </c>
       <c r="I20" t="n">
-        <v>-5.800000000000182</v>
+        <v>0.460000000000008</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.54</v>
+        <v>0.35</v>
       </c>
     </row>
     <row r="21">
@@ -1199,7 +1209,7 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="C21" t="b">
@@ -1219,16 +1229,16 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>1069</v>
+        <v>134.28</v>
       </c>
       <c r="H21" t="n">
-        <v>1073</v>
+        <v>135.01</v>
       </c>
       <c r="I21" t="n">
-        <v>-4</v>
+        <v>-0.7299999999999898</v>
       </c>
       <c r="J21" t="n">
-        <v>-0.37</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="22">
@@ -1313,13 +1323,15 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
-      <c r="D24" t="inlineStr"/>
+      <c r="D24" t="b">
+        <v>1</v>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
           <t>short</t>
@@ -1331,16 +1343,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>126.46</v>
+        <v>6945</v>
       </c>
       <c r="H24" t="n">
-        <v>127.3</v>
+        <v>6947</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.8400000000000034</v>
+        <v>-2</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.66</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="25">
@@ -1349,7 +1361,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C25" t="b">
@@ -1360,7 +1372,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1369,16 +1381,16 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>174.04</v>
+        <v>6892.5</v>
       </c>
       <c r="H25" t="n">
-        <v>174.48</v>
+        <v>6928</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.4399999999999977</v>
+        <v>35.5</v>
       </c>
       <c r="J25" t="n">
-        <v>-0.25</v>
+        <v>0.52</v>
       </c>
     </row>
     <row r="26">
@@ -1387,7 +1399,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C26" t="b">
@@ -1398,7 +1410,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1407,16 +1419,16 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>172.04</v>
+        <v>6948</v>
       </c>
       <c r="H26" t="n">
-        <v>174.5</v>
+        <v>6933.5</v>
       </c>
       <c r="I26" t="n">
-        <v>2.460000000000008</v>
+        <v>14.5</v>
       </c>
       <c r="J26" t="n">
-        <v>1.43</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="27">
@@ -1425,7 +1437,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="C27" t="b">
@@ -1445,16 +1457,16 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>170.6</v>
+        <v>6931.5</v>
       </c>
       <c r="H27" t="n">
-        <v>168.58</v>
+        <v>6941</v>
       </c>
       <c r="I27" t="n">
-        <v>-2.019999999999982</v>
+        <v>9.5</v>
       </c>
       <c r="J27" t="n">
-        <v>-1.18</v>
+        <v>0.14</v>
       </c>
     </row>
     <row r="28">
@@ -1577,13 +1589,15 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
-      <c r="D31" t="inlineStr"/>
+      <c r="D31" t="b">
+        <v>1</v>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>short</t>
@@ -1595,16 +1609,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>52.55</v>
+        <v>3134.05</v>
       </c>
       <c r="H31" t="n">
-        <v>52.505</v>
+        <v>3125.55</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0449999999999946</v>
+        <v>8.5</v>
       </c>
       <c r="J31" t="n">
-        <v>0.09</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="32">
@@ -1613,7 +1627,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C32" t="b">
@@ -1633,16 +1647,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>1464.8</v>
+        <v>3138.55</v>
       </c>
       <c r="H32" t="n">
-        <v>1458.2</v>
+        <v>3129.05</v>
       </c>
       <c r="I32" t="n">
-        <v>6.599999999999909</v>
+        <v>9.5</v>
       </c>
       <c r="J32" t="n">
-        <v>0.45</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="33">
@@ -1651,7 +1665,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C33" t="b">
@@ -1671,16 +1685,16 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>1430.4</v>
+        <v>3090.3</v>
       </c>
       <c r="H33" t="n">
-        <v>1432.4</v>
+        <v>3117.95</v>
       </c>
       <c r="I33" t="n">
-        <v>2</v>
+        <v>27.64999999999964</v>
       </c>
       <c r="J33" t="n">
-        <v>0.14</v>
+        <v>0.89</v>
       </c>
     </row>
     <row r="34">
@@ -1689,7 +1703,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C34" t="b">
@@ -1700,7 +1714,7 @@
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
@@ -1709,16 +1723,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1437.2</v>
+        <v>3075.5</v>
       </c>
       <c r="H34" t="n">
-        <v>1430.8</v>
+        <v>3074.7</v>
       </c>
       <c r="I34" t="n">
-        <v>6.400000000000091</v>
+        <v>-0.8000000000001819</v>
       </c>
       <c r="J34" t="n">
-        <v>0.45</v>
+        <v>-0.03</v>
       </c>
     </row>
     <row r="35">
@@ -1727,13 +1741,15 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
-      <c r="D35" t="inlineStr"/>
+      <c r="D35" t="b">
+        <v>1</v>
+      </c>
       <c r="E35" t="inlineStr">
         <is>
           <t>short</t>
@@ -1745,16 +1761,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>1446</v>
+        <v>3079.95</v>
       </c>
       <c r="H35" t="n">
-        <v>1440.2</v>
+        <v>3076.6</v>
       </c>
       <c r="I35" t="n">
-        <v>5.799999999999955</v>
+        <v>3.349999999999909</v>
       </c>
       <c r="J35" t="n">
-        <v>0.4</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="36">
@@ -1763,7 +1779,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C36" t="b">
@@ -1783,16 +1799,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>63.82</v>
+        <v>174.04</v>
       </c>
       <c r="H36" t="n">
-        <v>63.55</v>
+        <v>174.48</v>
       </c>
       <c r="I36" t="n">
-        <v>0.2700000000000031</v>
+        <v>-0.4399999999999977</v>
       </c>
       <c r="J36" t="n">
-        <v>0.42</v>
+        <v>-0.25</v>
       </c>
     </row>
     <row r="37">
@@ -1801,7 +1817,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C37" t="b">
@@ -1821,16 +1837,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>63.16</v>
+        <v>172.04</v>
       </c>
       <c r="H37" t="n">
-        <v>63.23</v>
+        <v>174.5</v>
       </c>
       <c r="I37" t="n">
-        <v>0.07000000000000028</v>
+        <v>2.460000000000008</v>
       </c>
       <c r="J37" t="n">
-        <v>0.11</v>
+        <v>1.43</v>
       </c>
     </row>
     <row r="38">
@@ -1839,7 +1855,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="C38" t="b">
@@ -1859,16 +1875,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>62.52</v>
+        <v>170.6</v>
       </c>
       <c r="H38" t="n">
-        <v>61.3</v>
+        <v>168.58</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.220000000000006</v>
+        <v>-2.019999999999982</v>
       </c>
       <c r="J38" t="n">
-        <v>-1.95</v>
+        <v>-1.18</v>
       </c>
     </row>
     <row r="39">
@@ -1877,7 +1893,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C39" t="b">
@@ -1897,16 +1913,16 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>61.69</v>
+        <v>1096.8</v>
       </c>
       <c r="H39" t="n">
-        <v>61.38</v>
+        <v>1093.8</v>
       </c>
       <c r="I39" t="n">
-        <v>0.3099999999999952</v>
+        <v>3</v>
       </c>
       <c r="J39" t="n">
-        <v>0.5</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="40">
@@ -1915,7 +1931,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C40" t="b">
@@ -1935,16 +1951,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>58.29</v>
+        <v>1082.4</v>
       </c>
       <c r="H40" t="n">
-        <v>58.46</v>
+        <v>1087</v>
       </c>
       <c r="I40" t="n">
-        <v>0.1700000000000017</v>
+        <v>4.599999999999909</v>
       </c>
       <c r="J40" t="n">
-        <v>0.29</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="41">
@@ -1953,7 +1969,7 @@
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C41" t="b">
@@ -1973,16 +1989,16 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>57.7</v>
+        <v>1072.4</v>
       </c>
       <c r="H41" t="n">
-        <v>57.05</v>
+        <v>1066.6</v>
       </c>
       <c r="I41" t="n">
-        <v>-0.6500000000000057</v>
+        <v>-5.800000000000182</v>
       </c>
       <c r="J41" t="n">
-        <v>-1.13</v>
+        <v>-0.54</v>
       </c>
     </row>
     <row r="42">
@@ -1991,7 +2007,7 @@
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>SELG</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="C42" t="b">
@@ -2011,16 +2027,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>57.53</v>
+        <v>1069</v>
       </c>
       <c r="H42" t="n">
-        <v>57.16</v>
+        <v>1073</v>
       </c>
       <c r="I42" t="n">
-        <v>0.3700000000000045</v>
+        <v>-4</v>
       </c>
       <c r="J42" t="n">
-        <v>0.64</v>
+        <v>-0.37</v>
       </c>
     </row>
     <row r="43">
@@ -2029,7 +2045,7 @@
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C43" t="b">
@@ -2040,7 +2056,7 @@
       </c>
       <c r="E43" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F43" t="inlineStr">
@@ -2049,16 +2065,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>143.52</v>
+        <v>538</v>
       </c>
       <c r="H43" t="n">
-        <v>143.54</v>
+        <v>537.05</v>
       </c>
       <c r="I43" t="n">
-        <v>0.01999999999998181</v>
+        <v>0.9500000000000455</v>
       </c>
       <c r="J43" t="n">
-        <v>0.01</v>
+        <v>0.18</v>
       </c>
     </row>
     <row r="44">
@@ -2067,7 +2083,7 @@
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>SOFL</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C44" t="b">
@@ -2087,16 +2103,16 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>141.08</v>
+        <v>530.95</v>
       </c>
       <c r="H44" t="n">
-        <v>139.98</v>
+        <v>534.8</v>
       </c>
       <c r="I44" t="n">
-        <v>-1.100000000000023</v>
+        <v>3.849999999999909</v>
       </c>
       <c r="J44" t="n">
-        <v>-0.7799999999999999</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="45">
@@ -2105,7 +2121,7 @@
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C45" t="b">
@@ -2116,7 +2132,7 @@
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F45" t="inlineStr">
@@ -2125,16 +2141,16 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>58.64</v>
+        <v>527.95</v>
       </c>
       <c r="H45" t="n">
-        <v>58.39</v>
+        <v>522.15</v>
       </c>
       <c r="I45" t="n">
-        <v>0.25</v>
+        <v>-5.800000000000068</v>
       </c>
       <c r="J45" t="n">
-        <v>0.43</v>
+        <v>-1.1</v>
       </c>
     </row>
     <row r="46">
@@ -2143,7 +2159,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C46" t="b">
@@ -2154,7 +2170,7 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F46" t="inlineStr">
@@ -2163,16 +2179,16 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>55.85</v>
+        <v>37.975</v>
       </c>
       <c r="H46" t="n">
-        <v>56.08</v>
+        <v>37.815</v>
       </c>
       <c r="I46" t="n">
-        <v>0.2299999999999969</v>
+        <v>0.1600000000000037</v>
       </c>
       <c r="J46" t="n">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="47">
@@ -2181,7 +2197,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C47" t="b">
@@ -2192,7 +2208,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F47" t="inlineStr">
@@ -2201,16 +2217,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>56.49</v>
+        <v>37.785</v>
       </c>
       <c r="H47" t="n">
-        <v>56.33</v>
+        <v>37.79</v>
       </c>
       <c r="I47" t="n">
-        <v>0.1600000000000037</v>
+        <v>0.005000000000002558</v>
       </c>
       <c r="J47" t="n">
-        <v>0.28</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="48">
@@ -2219,13 +2235,15 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
-      <c r="D48" t="inlineStr"/>
+      <c r="D48" t="b">
+        <v>1</v>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
           <t>long</t>
@@ -2237,16 +2255,16 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>56.01</v>
+        <v>37.375</v>
       </c>
       <c r="H48" t="n">
-        <v>56.07</v>
+        <v>37.56</v>
       </c>
       <c r="I48" t="n">
-        <v>0.06000000000000227</v>
+        <v>0.1850000000000023</v>
       </c>
       <c r="J48" t="n">
-        <v>0.11</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="49">
@@ -2255,7 +2273,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C49" t="b">
@@ -2275,16 +2293,16 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>381.84</v>
+        <v>37.125</v>
       </c>
       <c r="H49" t="n">
-        <v>385</v>
+        <v>35.9</v>
       </c>
       <c r="I49" t="n">
-        <v>3.160000000000025</v>
+        <v>-1.225000000000001</v>
       </c>
       <c r="J49" t="n">
-        <v>0.83</v>
+        <v>-3.3</v>
       </c>
     </row>
     <row r="50">
@@ -2293,7 +2311,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C50" t="b">
@@ -2313,16 +2331,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>385.4</v>
+        <v>36.17</v>
       </c>
       <c r="H50" t="n">
-        <v>382.66</v>
+        <v>35.96</v>
       </c>
       <c r="I50" t="n">
-        <v>2.739999999999952</v>
+        <v>0.2100000000000009</v>
       </c>
       <c r="J50" t="n">
-        <v>0.7100000000000001</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="51">
@@ -2331,7 +2349,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C51" t="b">
@@ -2342,7 +2360,7 @@
       </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F51" t="inlineStr">
@@ -2351,16 +2369,16 @@
         </is>
       </c>
       <c r="G51" t="n">
-        <v>381.93</v>
+        <v>300</v>
       </c>
       <c r="H51" t="n">
-        <v>382.83</v>
+        <v>298.75</v>
       </c>
       <c r="I51" t="n">
-        <v>0.8999999999999773</v>
+        <v>1.25</v>
       </c>
       <c r="J51" t="n">
-        <v>0.24</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="52">
@@ -2369,7 +2387,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C52" t="b">
@@ -2380,7 +2398,7 @@
       </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F52" t="inlineStr">
@@ -2389,16 +2407,16 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>383.67</v>
+        <v>296.25</v>
       </c>
       <c r="H52" t="n">
-        <v>384.62</v>
+        <v>297.84</v>
       </c>
       <c r="I52" t="n">
-        <v>-0.9499999999999886</v>
+        <v>1.589999999999975</v>
       </c>
       <c r="J52" t="n">
-        <v>-0.25</v>
+        <v>0.54</v>
       </c>
     </row>
     <row r="53">
@@ -2407,7 +2425,7 @@
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C53" t="b">
@@ -2427,16 +2445,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.10068</v>
+        <v>295.06</v>
       </c>
       <c r="H53" t="n">
-        <v>0.10104</v>
+        <v>295</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0003599999999999992</v>
+        <v>-0.06000000000000227</v>
       </c>
       <c r="J53" t="n">
-        <v>0.36</v>
+        <v>-0.02</v>
       </c>
     </row>
     <row r="54">
@@ -2445,7 +2463,7 @@
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="C54" t="b">
@@ -2465,16 +2483,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.09954</v>
+        <v>293.8</v>
       </c>
       <c r="H54" t="n">
-        <v>0.09846000000000001</v>
+        <v>294.6</v>
       </c>
       <c r="I54" t="n">
-        <v>-0.001079999999999998</v>
+        <v>0.8000000000000114</v>
       </c>
       <c r="J54" t="n">
-        <v>-1.08</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="55">
@@ -2483,7 +2501,7 @@
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C55" t="b">
@@ -2494,7 +2512,7 @@
       </c>
       <c r="E55" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F55" t="inlineStr">
@@ -2503,16 +2521,16 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.09918</v>
+        <v>58.29</v>
       </c>
       <c r="H55" t="n">
-        <v>0.09864000000000001</v>
+        <v>58.46</v>
       </c>
       <c r="I55" t="n">
-        <v>0.0005399999999999988</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="J55" t="n">
-        <v>0.54</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="56">
@@ -2521,7 +2539,7 @@
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C56" t="b">
@@ -2532,7 +2550,7 @@
       </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F56" t="inlineStr">
@@ -2541,16 +2559,16 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>3134.05</v>
+        <v>57.7</v>
       </c>
       <c r="H56" t="n">
-        <v>3125.55</v>
+        <v>57.05</v>
       </c>
       <c r="I56" t="n">
-        <v>8.5</v>
+        <v>-0.6500000000000057</v>
       </c>
       <c r="J56" t="n">
-        <v>0.27</v>
+        <v>-1.13</v>
       </c>
     </row>
     <row r="57">
@@ -2559,7 +2577,7 @@
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SELG</t>
         </is>
       </c>
       <c r="C57" t="b">
@@ -2579,16 +2597,16 @@
         </is>
       </c>
       <c r="G57" t="n">
-        <v>3138.55</v>
+        <v>57.53</v>
       </c>
       <c r="H57" t="n">
-        <v>3129.05</v>
+        <v>57.16</v>
       </c>
       <c r="I57" t="n">
-        <v>9.5</v>
+        <v>0.3700000000000045</v>
       </c>
       <c r="J57" t="n">
-        <v>0.3</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="58">
@@ -2597,7 +2615,7 @@
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C58" t="b">
@@ -2617,16 +2635,16 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3090.3</v>
+        <v>143.52</v>
       </c>
       <c r="H58" t="n">
-        <v>3117.95</v>
+        <v>143.54</v>
       </c>
       <c r="I58" t="n">
-        <v>27.64999999999964</v>
+        <v>0.01999999999998181</v>
       </c>
       <c r="J58" t="n">
-        <v>0.89</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="59">
@@ -2635,7 +2653,7 @@
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>SOFL</t>
         </is>
       </c>
       <c r="C59" t="b">
@@ -2655,16 +2673,16 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>3075.5</v>
+        <v>141.08</v>
       </c>
       <c r="H59" t="n">
-        <v>3074.7</v>
+        <v>139.98</v>
       </c>
       <c r="I59" t="n">
-        <v>-0.8000000000001819</v>
+        <v>-1.100000000000023</v>
       </c>
       <c r="J59" t="n">
-        <v>-0.03</v>
+        <v>-0.7799999999999999</v>
       </c>
     </row>
     <row r="60">
@@ -2673,7 +2691,7 @@
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C60" t="b">
@@ -2693,16 +2711,16 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>3079.95</v>
+        <v>661.4</v>
       </c>
       <c r="H60" t="n">
-        <v>3076.6</v>
+        <v>659.5</v>
       </c>
       <c r="I60" t="n">
-        <v>3.349999999999909</v>
+        <v>1.899999999999977</v>
       </c>
       <c r="J60" t="n">
-        <v>0.11</v>
+        <v>0.29</v>
       </c>
     </row>
     <row r="61">
@@ -2711,13 +2729,15 @@
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>MXI</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
-      <c r="D61" t="inlineStr"/>
+      <c r="D61" t="b">
+        <v>1</v>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
           <t>long</t>
@@ -2729,16 +2749,16 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>3067.9</v>
+        <v>652.2</v>
       </c>
       <c r="H61" t="n">
-        <v>3065.9</v>
+        <v>657</v>
       </c>
       <c r="I61" t="n">
-        <v>-2</v>
+        <v>4.799999999999955</v>
       </c>
       <c r="J61" t="n">
-        <v>-0.06999999999999999</v>
+        <v>0.74</v>
       </c>
     </row>
     <row r="62">
@@ -2747,7 +2767,7 @@
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C62" t="b">
@@ -2758,7 +2778,7 @@
       </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F62" t="inlineStr">
@@ -2767,16 +2787,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>37.975</v>
+        <v>649.5</v>
       </c>
       <c r="H62" t="n">
-        <v>37.815</v>
+        <v>654.1</v>
       </c>
       <c r="I62" t="n">
-        <v>0.1600000000000037</v>
+        <v>4.600000000000023</v>
       </c>
       <c r="J62" t="n">
-        <v>0.42</v>
+        <v>0.7100000000000001</v>
       </c>
     </row>
     <row r="63">
@@ -2785,7 +2805,7 @@
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>TATN</t>
         </is>
       </c>
       <c r="C63" t="b">
@@ -2796,7 +2816,7 @@
       </c>
       <c r="E63" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F63" t="inlineStr">
@@ -2805,16 +2825,16 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>37.785</v>
+        <v>657.7</v>
       </c>
       <c r="H63" t="n">
-        <v>37.79</v>
+        <v>653.9</v>
       </c>
       <c r="I63" t="n">
-        <v>0.005000000000002558</v>
+        <v>3.800000000000068</v>
       </c>
       <c r="J63" t="n">
-        <v>0.01</v>
+        <v>0.58</v>
       </c>
     </row>
     <row r="64">
@@ -2823,15 +2843,13 @@
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
-      <c r="D64" t="b">
-        <v>1</v>
-      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>long</t>
@@ -2843,16 +2861,16 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>37.375</v>
+        <v>56.01</v>
       </c>
       <c r="H64" t="n">
-        <v>37.56</v>
+        <v>56.07</v>
       </c>
       <c r="I64" t="n">
-        <v>0.1850000000000023</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="J64" t="n">
-        <v>0.49</v>
+        <v>0.11</v>
       </c>
     </row>
     <row r="65">
@@ -2861,18 +2879,16 @@
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
-      <c r="D65" t="b">
-        <v>1</v>
-      </c>
+      <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F65" t="inlineStr">
@@ -2881,16 +2897,16 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>37.125</v>
+        <v>1446</v>
       </c>
       <c r="H65" t="n">
-        <v>35.9</v>
+        <v>1440.2</v>
       </c>
       <c r="I65" t="n">
-        <v>-1.225000000000001</v>
+        <v>5.799999999999955</v>
       </c>
       <c r="J65" t="n">
-        <v>-3.3</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="66">
@@ -2899,15 +2915,13 @@
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
-      <c r="D66" t="b">
-        <v>1</v>
-      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
           <t>short</t>
@@ -2919,16 +2933,16 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>36.17</v>
+        <v>126.46</v>
       </c>
       <c r="H66" t="n">
-        <v>35.96</v>
+        <v>127.3</v>
       </c>
       <c r="I66" t="n">
-        <v>0.2100000000000009</v>
+        <v>-0.8400000000000034</v>
       </c>
       <c r="J66" t="n">
-        <v>0.58</v>
+        <v>-0.66</v>
       </c>
     </row>
     <row r="67">
@@ -2937,7 +2951,7 @@
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>RUAL</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="C67" t="b">
@@ -2946,7 +2960,7 @@
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F67" t="inlineStr">
@@ -2955,16 +2969,16 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>35.855</v>
+        <v>52.55</v>
       </c>
       <c r="H67" t="n">
-        <v>35.8</v>
+        <v>52.505</v>
       </c>
       <c r="I67" t="n">
-        <v>-0.05499999999999972</v>
+        <v>0.0449999999999946</v>
       </c>
       <c r="J67" t="n">
-        <v>-0.15</v>
+        <v>0.09</v>
       </c>
     </row>
     <row r="68">
@@ -2973,18 +2987,16 @@
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>MXI</t>
         </is>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
-      <c r="D68" t="b">
-        <v>1</v>
-      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F68" t="inlineStr">
@@ -2993,16 +3005,16 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>661.4</v>
+        <v>3067.9</v>
       </c>
       <c r="H68" t="n">
-        <v>659.5</v>
+        <v>3065.9</v>
       </c>
       <c r="I68" t="n">
-        <v>1.899999999999977</v>
+        <v>-2</v>
       </c>
       <c r="J68" t="n">
-        <v>0.29</v>
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="69">
@@ -3011,18 +3023,16 @@
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
-      <c r="D69" t="b">
-        <v>1</v>
-      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>long</t>
+          <t>short</t>
         </is>
       </c>
       <c r="F69" t="inlineStr">
@@ -3031,16 +3041,16 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>652.2</v>
+        <v>524.95</v>
       </c>
       <c r="H69" t="n">
-        <v>657</v>
+        <v>524.9</v>
       </c>
       <c r="I69" t="n">
-        <v>4.799999999999955</v>
+        <v>0.05000000000006821</v>
       </c>
       <c r="J69" t="n">
-        <v>0.74</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="70">
@@ -3049,15 +3059,13 @@
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>TATN</t>
+          <t>RUAL</t>
         </is>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
-      <c r="D70" t="b">
-        <v>1</v>
-      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>long</t>
@@ -3069,16 +3077,16 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>649.5</v>
+        <v>35.855</v>
       </c>
       <c r="H70" t="n">
-        <v>654.1</v>
+        <v>35.8</v>
       </c>
       <c r="I70" t="n">
-        <v>4.600000000000023</v>
+        <v>-0.05499999999999972</v>
       </c>
       <c r="J70" t="n">
-        <v>0.7100000000000001</v>
+        <v>-0.15</v>
       </c>
     </row>
     <row r="71">
@@ -3093,12 +3101,10 @@
       <c r="C71" t="b">
         <v>1</v>
       </c>
-      <c r="D71" t="b">
-        <v>1</v>
-      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>short</t>
+          <t>long</t>
         </is>
       </c>
       <c r="F71" t="inlineStr">
@@ -3107,51 +3113,15 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>657.7</v>
+        <v>651.4</v>
       </c>
       <c r="H71" t="n">
-        <v>653.9</v>
+        <v>651.6</v>
       </c>
       <c r="I71" t="n">
-        <v>3.800000000000068</v>
+        <v>0.2000000000000455</v>
       </c>
       <c r="J71" t="n">
-        <v>0.58</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" s="1" t="n">
-        <v>70</v>
-      </c>
-      <c r="B72" t="inlineStr">
-        <is>
-          <t>TATN</t>
-        </is>
-      </c>
-      <c r="C72" t="b">
-        <v>1</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
-      <c r="E72" t="inlineStr">
-        <is>
-          <t>long</t>
-        </is>
-      </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>VisualTraider_v3</t>
-        </is>
-      </c>
-      <c r="G72" t="n">
-        <v>651.4</v>
-      </c>
-      <c r="H72" t="n">
-        <v>651.6</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0.2000000000000455</v>
-      </c>
-      <c r="J72" t="n">
         <v>0.03</v>
       </c>
     </row>
@@ -3166,7 +3136,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3275,287 +3245,287 @@
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>MAGN</t>
+          <t>CHMF</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-0.4299999999999997</v>
+        <v>20.79999999999995</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1074999999999999</v>
+        <v>5.199999999999989</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.8099999999999999</v>
+        <v>1.44</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>SBER</t>
+          <t>LKOH</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3.579999999999984</v>
+        <v>57.5</v>
       </c>
       <c r="C6" t="n">
         <v>4</v>
       </c>
       <c r="D6" t="n">
-        <v>0.894999999999996</v>
+        <v>14.375</v>
       </c>
       <c r="E6" t="n">
-        <v>1.21</v>
+        <v>0.84</v>
       </c>
       <c r="F6" t="n">
-        <v>0.3</v>
+        <v>0.21</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>ROSN</t>
+          <t>MAGN</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.9500000000000455</v>
+        <v>-0.4299999999999997</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2375000000000114</v>
+        <v>-0.1074999999999999</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1799999999999999</v>
+        <v>-0.8099999999999999</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.04</v>
+        <v>-0.2</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>NVTK</t>
+          <t>ALRS</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>-2.200000000000273</v>
+        <v>-0.5700000000000074</v>
       </c>
       <c r="C8" t="n">
         <v>4</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.5500000000000682</v>
+        <v>-0.1425000000000018</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2200000000000001</v>
+        <v>-0.9199999999999999</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.06</v>
+        <v>-0.23</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>ALRS</t>
+          <t>NVTK</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-0.5700000000000074</v>
+        <v>-2.200000000000273</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1425000000000018</v>
+        <v>-0.5500000000000682</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.9199999999999999</v>
+        <v>-0.2200000000000001</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.23</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>ABIO</t>
+          <t>ROSN</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.7000000000000028</v>
+        <v>-0.9500000000000455</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
       <c r="D10" t="n">
-        <v>0.1750000000000007</v>
+        <v>-0.2375000000000114</v>
       </c>
       <c r="E10" t="n">
-        <v>1.23</v>
+        <v>-0.1799999999999999</v>
       </c>
       <c r="F10" t="n">
-        <v>0.31</v>
+        <v>-0.04</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>LKOH</t>
+          <t>BSPB</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>57.5</v>
+        <v>5.849999999999966</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
       <c r="D11" t="n">
-        <v>14.375</v>
+        <v>1.462499999999991</v>
       </c>
       <c r="E11" t="n">
-        <v>0.84</v>
+        <v>1.53</v>
       </c>
       <c r="F11" t="n">
-        <v>0.21</v>
+        <v>0.38</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>CHMF</t>
+          <t>SBER</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>20.79999999999995</v>
+        <v>3.579999999999984</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
       <c r="D12" t="n">
-        <v>5.199999999999989</v>
+        <v>0.894999999999996</v>
       </c>
       <c r="E12" t="n">
-        <v>1.44</v>
+        <v>1.21</v>
       </c>
       <c r="F12" t="n">
-        <v>0.36</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>BSPB</t>
+          <t>ABIO</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>5.849999999999966</v>
+        <v>0.7000000000000028</v>
       </c>
       <c r="C13" t="n">
         <v>4</v>
       </c>
       <c r="D13" t="n">
-        <v>1.462499999999991</v>
+        <v>0.1750000000000007</v>
       </c>
       <c r="E13" t="n">
-        <v>1.53</v>
+        <v>1.23</v>
       </c>
       <c r="F13" t="n">
-        <v>0.38</v>
+        <v>0.31</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>NLMK</t>
+          <t>FEES</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>-0.0001799999999999996</v>
       </c>
       <c r="C14" t="n">
         <v>3</v>
       </c>
       <c r="D14" t="n">
-        <v>9.473903143468002e-15</v>
+        <v>-5.999999999999987e-05</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>-0.18</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>-0.06</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>GMKN</t>
+          <t>GAZP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-2.280000000000015</v>
+        <v>0.01000000000001933</v>
       </c>
       <c r="C15" t="n">
         <v>3</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.7600000000000051</v>
+        <v>0.003333333333339775</v>
       </c>
       <c r="E15" t="n">
-        <v>-1.79</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.6</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>GAZP</t>
+          <t>GMKN</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01000000000001933</v>
+        <v>-2.280000000000015</v>
       </c>
       <c r="C16" t="n">
         <v>3</v>
       </c>
       <c r="D16" t="n">
-        <v>0.003333333333339775</v>
+        <v>-0.7600000000000051</v>
       </c>
       <c r="E16" t="n">
-        <v>0.02000000000000002</v>
+        <v>-1.79</v>
       </c>
       <c r="F16" t="n">
-        <v>0.01</v>
+        <v>-0.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>FEES</t>
+          <t>NLMK</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.0001799999999999996</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="C17" t="n">
         <v>3</v>
       </c>
       <c r="D17" t="n">
-        <v>-5.999999999999987e-05</v>
+        <v>9.473903143468002e-15</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.18</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.06</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -3601,24 +3571,6 @@
       <c r="F19" t="n">
         <v>-0.38</v>
       </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>pupse</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
